--- a/results/I3_N5_M3_T30_C150_DepLowerLeft_s3_P1_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepLowerLeft_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1040.832742210015</v>
+        <v>1574.793133808735</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.155298979788896e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.45846504503517</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.798776029487509</v>
+        <v>15.45364018857073</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.683053194461346</v>
+        <v>6.594120315535767</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>947.2000000000057</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -631,7 +631,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>2.469817807045693</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24.55844691287496</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>20.84866676379884</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>14.61296311465065</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.33301651610693</v>
+        <v>12.35722294236247</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22.46981780704569</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1129,10 +1129,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1157,15 +1157,29 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1268,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.71999999999964</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -1279,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43999999999964</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1304,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37499999999963</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -1301,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.17999999999964</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18499999999963</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -1323,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>238.6750000000005</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -1334,7 +1348,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>250.0900000000005</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -1345,7 +1359,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>240.2950000000006</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -1356,7 +1370,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>246.5050000000005</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -1367,7 +1381,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>248.0350000000007</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -1378,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18">
@@ -1389,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19">
@@ -1400,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20">
@@ -1411,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1436,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22">
@@ -1433,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.01</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23">
@@ -1444,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>107.785</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24">
@@ -1455,7 +1469,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>116.8050000000001</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25">
@@ -1466,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>101.31</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26">
@@ -1477,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.9950000000001</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27">
@@ -1488,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>152.9850000000007</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1513,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>153.2300000000007</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29">
@@ -1510,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>159.1650000000009</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
@@ -1521,7 +1535,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>156.6300000000007</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31">
@@ -1532,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>161.4950000000009</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32">
@@ -1543,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>65.71999999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1554,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>59.43999999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1565,7 +1579,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>69.37499999999963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1576,7 +1590,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>64.17999999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1587,7 +1601,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>63.18499999999963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1598,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38">
@@ -1609,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39">
@@ -1620,7 +1634,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40">
@@ -1631,7 +1645,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41">
@@ -1642,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42">
@@ -1653,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>238.6750000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1664,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>250.0900000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1675,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>240.2950000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1686,7 +1700,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>246.5050000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1697,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>248.0350000000007</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -1810,7 +1824,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -1821,7 +1835,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -1832,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -1843,7 +1857,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -1854,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>88.67500000000052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1865,7 +1879,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>100.0900000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1876,7 +1890,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>90.29500000000064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1887,7 +1901,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>96.50500000000051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1898,7 +1912,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>98.03500000000068</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1945,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -1956,7 +1970,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1967,7 +1981,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -1978,7 +1992,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1989,7 +2003,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -2000,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2011,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2022,7 +2036,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2033,7 +2047,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2044,7 +2058,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2055,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2066,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2077,7 +2091,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2088,7 +2102,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2099,7 +2113,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2110,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2121,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2132,7 +2146,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2143,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2154,7 +2168,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2165,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2176,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2187,7 +2201,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2198,7 +2212,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2209,7 +2223,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2250,7 +2264,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2261,7 +2275,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2272,7 +2286,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2283,7 +2297,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2294,7 +2308,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2305,7 +2319,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2316,7 +2330,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2327,7 +2341,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2338,7 +2352,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2349,12 +2363,23 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
         <v>1</v>
       </c>
     </row>
